--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Loslagos.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Loslagos.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R2b483789b17c46a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R2330a5d9f54f4c43"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1849450.1638816</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6666354.075431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35108.549279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76912</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1917443.0892318</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6663763.4408602</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36193.301166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1970988.8379152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7046491.3956989</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38241.506234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78088</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1953253.1002458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6979196.7349137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36879.721486</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78552</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1952107.8357903</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7881259.5897435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39964.658444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79020</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2011864.399633</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8136507.196162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41657.790245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79595</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1882358.5873233</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7955000.9344608</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37547.98424</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80106</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1851751.3480513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7808521.4261603</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40391.192978</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80490</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1854305.661374</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7548684.0315126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37786.037756</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81087</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1800566.3774094</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7831262.1642411</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41813.352209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81531</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1789991.9374103</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8369156.3423799</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42470.039886</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81785</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1864369.3250473</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8071846.5219206</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44190.75172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82090</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1879541.4840784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7881324.3822314</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46520.272179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82376</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1905016.4051908</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7662779.1694214</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47535.255159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82910</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1969094.2136171</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7811281.8868312</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42947.289807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83429</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1951780.3983626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9263115.1505154</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47931.915932</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84582</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1942028.1830058</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9159890.7022587</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51054.274546</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85224</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1958061.4091687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8275627.7510288</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47648.827901</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1895151.1351404</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8216624.0698152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48253.833302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1853023.2623817</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8048862.0936863</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50790.155116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87120</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1898339.2157024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7967050.494929</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50380.467124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87688</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1876083.8910569</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7930888.1555555</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52039.100955</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88243</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1887685.9872964</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8407690.112676</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54162.038465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88820</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1957917.482594</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8427489.1368209</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58586.721655</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89278</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1998340.6572391</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9673175.348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59972.822853</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89661</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2061817.5116494</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9348518.4123506</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60176.603839</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90349</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2080225.1483248</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9494888.0694444</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57873.706194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2067342.4998132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9156935.1420118</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59418.118972</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91540</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2103999.0930303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9656735.5623762</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62466.556139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2096138.0243662</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9288014.2716535</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59402.9201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2041690.2801258</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9322427.8067061</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61960.75316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93858</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1985806.1410961</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9258999.3838582</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58213.114908</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94628</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1995088.3215961</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9389372.6849315</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63854.389285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95321</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1964176.2337785</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9913296.2558593</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64434.412349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95965</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1973476.8609597</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10412109.762183</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60260.367484</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96599</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2038392.4296524</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10234044.768932</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69703.843026</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2067832.6223183</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9927365.3934108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70163.154508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97684</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2100090.3068056</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15989445.790786</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>66525.065793</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98376</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2121239.9284073</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16599329.64</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70010.481925</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98984</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2082034.8690596</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16238693.234848</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>72254.272209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99543</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2126063.3844871</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16848661.939962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74204.044318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100178</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2156979.8754317</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16990294.659813</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75505.946399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100791</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2124398.2360726</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17506098.149812</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75364.280013</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101481</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2065349.6196135</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18251901.723562</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>72278.913103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101972</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2068243.2875789</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17530291.419889</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76275.916656</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102372</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2037861.9270015</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17596975.285974</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76619.396417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2020748.3277032</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21097603.245454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74551.220659</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103522</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2067880.9940205</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18175411.768115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82277.546793</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103912</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2075278.888829</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17550170.796028</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78728.974191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104260</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2089284.7929023</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17661009.09009</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80487.287586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2080802.2584529</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18732208.422182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82553.246569</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2077416.4601792</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23108837.005357</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85843.115357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2069091.0931781</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22753493.762923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87358.823787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106703</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2096727.9735621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22550577.078712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89456.563784</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2068101.1535371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21513064.509632</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83356.772723</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108059</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2042857.8111864</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16583185.482173</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87978.966927</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108572</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2080691.7179751</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16062349.31</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92580.808013</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109290</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2028305.0103028</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16054714.669934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89713.826708</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109997</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2022121.0029546</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15748282.381028</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96568.221818</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110630</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2125314.9424568</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14303191.468998</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103354.826523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111372</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2112058.1407624</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14161812.531782</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98970.705459</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2153911.2991169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14596084.34</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102422.418522</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2192862.3203192</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14482802.978787</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106242.804885</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113364</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2172297.1205938</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10919423.422155</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98853.407994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114005</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2217450.0876101</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10454098.065281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107270.183876</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2219082.7568579</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9956238.4403534</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113035.727618</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115237</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2162016.0918715</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9445581.3826979</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105344.572066</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116053</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2085388.4899916</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9423041.9970802</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111052.831011</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116532</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2135972.512563</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8958583.7919075</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112934.926001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117555</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2078291.723423</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9283567.3953824</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111211.153273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116588</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2066390.9228822</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8806729.4777618</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112346.917729</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119042</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2150061.9091245</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8905510.2351274</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122158.316863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119861</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2145397.1650745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9259910.571227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118600.052287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120456</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2177874.9031762</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8771744.7347222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121132.16189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121357</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2200340.4357639</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8932313.1625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125044.086226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2198134.1086648</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9907060.6629986</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123163.707324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2181955.7581258</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9286705.3233287</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131665.567146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2197543.2391837</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8702296.2699055</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134031.613975</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125389</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2182210.0474523</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8706640.1866666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127587.998412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126214</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2151241.4264265</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8748674.5577689</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135415.105792</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128586</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2186003.3973605</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8159128.5868373</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128616.759458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129286</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2187096.8976764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7718993.3145454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136159.401774</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129853</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2221183.79801</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8682911.3368606</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137878.030851</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130449</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2308523.5906599</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10641448.724913</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140790.385443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130988</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2317876.0158793</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10314155.946488</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>148266.453076</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2385099.4363294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10423439.480991</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>152248.678073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131872</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2462146.7222685</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10776826.852216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>155761.818177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2629228.6736298</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10793414.235389</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>179004.358347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131614</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2839149.6281474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10762919.772435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>185020.012165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131050</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3060348.1718122</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11505545.85559</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>181093.461502</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3171372.1865672</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11003309.426865</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>199965.763591</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132546</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3355905.3875937</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10553889.48559</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>366678.840818</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133156</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3617856.3743729</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12584051.606145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>363113.658998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133885</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3693514.1329499</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12567296.325203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>339857.318749</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134773</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3674897.0584909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14109131.305128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>311590.03479</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3789647.4957097</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13775871.636588</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>453509.415325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>423943.763126</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>397805.870881</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>385221.830689</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>387566.738276</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>509894.202782</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>481854.269432</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>481228.268617</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>460708.520804</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>458763.519681</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>443704.570994</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>425168.901509</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>430440.051394</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>400531.249181</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>384923.719269</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>368120.536094</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>369799.658501</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>355511.401956</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>347109.028927</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>333743.553176</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>323104.145592</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>325317.121185</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>314496.362353</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>297889.592914</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>308283.101352</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>295282.12385</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>297396.420396</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>296980.745797</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>294000.056204</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>283690.173653</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>291186.391873</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>271339.027946</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>274283.6781</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>281962.924528</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>268001.332051</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>269683.079206</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>284501.176037</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>277580.914082</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>284508.807</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>287911.314406</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>280591.477854</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>286609.552815</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>285781.950318</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>274548.680942</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
